--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/14_Batman_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/14_Batman_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B508F67-26E6-43D6-858B-3771626C4190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B69206C-CDD5-4A9C-892D-DAE73348E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{A6CDE522-B9E6-40E1-A864-267839F1949C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{1E22E150-9BD0-4A6A-A641-7C2E5F8ABC02}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -931,14 +931,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{BD3AC9B7-866D-4CEA-8AFA-40FBD9D821AA}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B54F35D8-C573-42DD-B17C-7480E466B007}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{979096B8-8EC9-41C0-BF78-9568DD69CA0C}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{D4EFFFE1-2FD2-42B4-8A48-D93E7A03E278}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6C41C235-3DB3-4916-8F13-FEB0BE3AC56E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{44A1D55A-7655-4131-B754-D399A8643C3D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{22B849D1-42E6-484E-A65E-AB8146292209}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5CDE1AFD-8A8E-4970-96C4-ED6053334632}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5B358CC6-F7F8-4747-BF0B-BDB06C4B4999}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2C5AB6E5-5B9D-493D-B5CF-DC65BAF9EE47}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{B1D7D9BA-14D6-40EC-BDE9-48C6AAB36EF8}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{46B26590-C093-49EC-A56E-6E2ABAA8BA35}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F8433CE6-38D2-4FB9-A92D-8CEEAE8CDCD0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BFB7079E-44AF-401F-9ED0-4BF3FD9E13D3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{89F87825-16E7-4FB3-A700-57179CFEBAE4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{28C46A7A-ACEB-46FE-811D-6DCEFB07AF70}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E410B0-0D23-4A1E-9C51-51EBE145A5D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91CEC1D-3013-44DA-9D98-BF9F47A2948B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2591,18 +2591,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C11C940D-046F-49AE-8665-13572E40FB0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{076EA496-1B9C-4E81-A2E4-BDA613E2FD0C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B50E220-E058-4A36-8239-01113A368A4C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{43669DF0-743D-4B21-AFA8-95A39F4F15CA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9BB61A3-E109-4691-8851-E3F9EA60F9AB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9B0D4A4-448C-4835-9A7F-D85ED69AE5D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06169460-5127-4D35-BD91-00111B78C0D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5744C1C4-11BE-41D0-B80A-02BBAB1801CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4CC59BE-A0DE-472C-9AF5-2E85A8354769}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC9861B6-3923-43E1-8426-C4B6C55266DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F7FB180-14CA-4B82-9C4E-F4F7691E4634}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{734B12FA-8786-4D19-8479-0A2CC50FDE26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E40ADF8-27A3-4FA5-9347-39FCAE0E0BDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAAEA607-A6BB-4D40-BF68-05C8B93D757F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23C1D7F1-5317-4BAC-BFFE-0E31183A6019}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6C14E7D2-B62D-4831-9FD1-0620C7B6F74B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EC81B1FB-04F1-4AC9-B16B-85C4E6F14C97}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{476F3348-FA68-43B0-B97B-EA799A7E7436}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39EA85DD-65F1-47C0-8214-6E9A2BE4CA24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89F9BFF8-45C4-4D7B-A99F-605E05ADBCE6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E0463954-AA90-4C02-86A3-393BC8F6F9A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A139221-1EF5-4C5C-99D8-66AFC3FC5266}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38530353-31D9-4268-85C8-11A5282429A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B4B6BDA-1B4B-469B-9EB1-24894DBD2787}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2615,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A20707-4A19-462E-A789-E867FDE3CA4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40C3DA7-C770-41DA-872A-E04D1CF5E96D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3896,18 +3896,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01A8C178-37F0-456F-9DF1-5BC0A6AD5761}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC49CB85-D965-4288-931A-6B0B2A7DE838}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26CEBEEE-25E7-41AD-B8B1-EE7920C278A6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A1F3633-62BD-45AE-8C57-FA187DA4E739}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8265B3FE-0327-40DC-B9B4-14A371395039}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BAB0B94F-B4F5-4A8B-A2DF-550282A6089F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDFED2AD-B546-4E42-AD7B-0B20D0BCC196}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B53F7CE7-C3A1-49B5-A923-E53C24FB72AD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C8F66F8-4A81-4E77-A796-A1D7C07EA5DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD8493CD-1924-42D6-B8E4-8E06FB2D0A5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27FDDECF-3BA1-4664-B0D6-68A0687F9DE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86D1246E-CA2A-4FEC-86DF-AC71DD12FAB5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECE1079B-CC09-4661-93E8-0247159A8B23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{192555EF-1861-4962-B888-743DEC7E0DD5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{76969F53-F9C6-40B5-BBAF-4A987B46CBA2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1ABB65E6-3AD8-41A2-9A00-CE6D019B6DE7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37FA937D-4C87-439E-A4CE-24C883C042C5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08E3F09A-A0D7-46C6-8D24-CE6D88040782}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99F2251A-3EDC-4538-9617-C06D9B565CA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{180410E5-5D9E-455E-A22E-5E191F2C67A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4813917A-FF20-4416-A0F9-D9E98DA4E91D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34AC1B17-4913-422A-ADE6-52BFA80803FC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A0AD8F6-00A6-43F6-8BAF-4F6B45BA4F12}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E90E6011-088F-4B49-8548-16924A5BC36E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3920,7 +3920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5382A3F-9D4C-4B54-913A-A8DC03A471F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2138E978-0FB8-4829-A326-6F2E20607EE0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5193,18 +5193,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1F39548-2732-4F4C-A4FA-F76AB81E5708}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B55DB4B5-7E88-46E2-BAA0-B3E05793B6CC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B2DFFA3-365E-4450-8739-B84529EA43CA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9730865E-A7A2-4294-B6A5-D94A9DAAAA2B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D945ABE4-A968-4B5B-8B35-90369FAF34A1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CB66914F-E1AA-4020-9AE0-576453D836AD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14012827-960A-4367-945C-51E1B5DD44F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC7C2F76-0FDB-4515-80BD-ED5500D89D12}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D5CFA83B-18B7-4902-88A0-75DBC2F251D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1658BB87-6B29-4170-AAF7-837B6C629BC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF1765E8-C40E-413D-9680-B3A9B5081B25}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9C98B93-7F55-4E7A-BA0F-528772C06590}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51FEA2D7-B02F-4D3A-A946-1748DA7BD7A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44AA9C28-1CFA-4688-AA79-2F4B810BF3D0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D78A973-C019-41CA-8A97-6ADE287F38A8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C36F271-8DC3-4CE2-AD69-4539057128D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE3BD520-151C-42D5-83D6-4F4327014731}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B6E49881-A704-4F82-AFCD-DBED77D923EF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65F8233B-75ED-42ED-8C93-C758AAF24297}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{258C738F-5814-4EC1-BA53-C7B1438113CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE3B1451-E288-4739-B159-E375CA344738}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{898C12BD-AAA4-4252-AB69-C9A303ACD038}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91948462-C29A-4BEE-8650-7311C8DEDF1A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7B31B36-A986-44CE-AE42-9BD5717BC85F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5217,7 +5217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28C9EC7-4CA0-430C-BE4D-B53552DB2E30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A760E131-0A8D-4456-9B89-C7489B0D60E2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6482,18 +6482,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B4618DC-9605-4261-B65E-F8E998AF1034}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98708687-C0B6-414B-B14A-8D37173297A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D8A407F8-FEE3-429B-9260-F0916DBB01C6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{789D656E-8BDE-4CA0-B0B6-BE512E48667F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{63051973-B1D7-4CBB-9208-40172D9D9BCB}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0787B9A6-10F4-4DE7-A590-CAA77977CCC0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1037BD2D-3007-488F-8965-66038E2BCAB2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48870733-6977-4958-8B43-060077E09AF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C82BD90-AFB4-423F-AA41-87BF79A24EF2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D098388-7167-44A5-A4E5-2CABA2F877D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE9C10FB-EE47-4AD6-9D94-C60F324A4EDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FF7DBD3-7ADF-4943-B24E-0674157A3640}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9140D66-F118-4B42-BFE4-813F5780B063}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0C54FE07-DA85-46DF-B52D-034FDFAC3D91}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EE8EF26-67F0-4AED-8DF5-28551569E26A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57FAA06C-9826-4072-803C-FA6DC215C46C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39E83A64-0C52-482A-A183-B803D6316F20}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{452C8C84-DAC1-432F-8D4D-00CB8600C47A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EA8EE71-D38E-454B-BC54-BA1DCEFF59F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D6FBD35F-71AA-4A85-9014-5A02AE69425A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9169962-D670-41D6-840F-E7502AEE37AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C3A21FE-7E27-4A22-987C-C8F286BB675F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{012CAD8E-8517-4FEC-9C7F-695498E86E78}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E21C69D9-1E63-46D0-8AE9-1035D35F9F6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6506,7 +6506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C7C8AC-1398-4054-BA05-2488BB4C932D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB7C80F-4A57-4132-BD98-CCD5EAD67AE9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7791,18 +7791,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F2FDB6A-77C0-4645-A8EF-C01145B0EAB1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD09E10B-4DDE-40E1-BED1-FF5D77F9F663}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B91CE55C-2752-49C6-9701-63E69EF668F5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B204FC82-BF67-46D0-AAE7-A9B4ABC1CC7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D57D383A-62F2-4413-B8F2-48ACF8DF9CDE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09A35B55-12B2-40AB-856E-44A294C4903C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4495F697-6E86-4314-91AC-B6F191C2BB19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF68F052-F0F9-4FD4-9969-F655E7CBF378}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{785161D9-3175-4C8F-AC20-DD0334F4EC37}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F603CCE-8492-424E-8091-39368B9F417B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86489A27-234C-47C7-A84E-30685955C1AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCE90C92-F0F9-40BF-951B-3203BABEE629}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF2F47FD-4803-4F7B-9395-46A8EBD307BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E580FD55-5243-4551-8EA8-156C116C6AEA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5943A40-F86C-48DF-99E9-415FDFE29A4B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BD377CA3-8696-4A75-9DEC-D4C22095D914}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{610BEF89-1CBF-436C-9902-CC3940A85F4E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7DB91160-80BF-4ACF-8DCB-29A967991470}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{071D4EA3-2AAA-4643-9511-FB0C4C5A2D95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF388818-4884-4BB3-BDDE-B5ED591DFF5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A0666CA-BDEC-4135-804B-9FCE1C6FCF88}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{379B80A6-C190-4E30-BDB7-D50E057C5200}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B8E1A1E-BC6C-41D9-B33E-0D3E831907A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3D7965A2-8AEE-412F-83C5-3D7F150D5BF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7815,7 +7815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D039C6-D774-47AD-9692-9774FB13216F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DE909C-45F6-41B1-8D58-778A70F0793B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9100,18 +9100,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{503A4F78-19F6-4A30-8921-E2CC2FD387A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{18D2146D-84F6-468F-BD03-466C9540355A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1242F47E-6B1F-4708-B1D0-0344B11955DE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8ECB3E73-E799-427B-9E7C-44BED8374B9F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BD6B5C7-57E8-44EC-BE25-58978F1E79C9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{57CE5F0C-016D-49B4-8F03-3A8432E444B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12C96593-2442-4DFE-81FF-AB7B53D12293}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B868CFBE-430F-48EB-BD7B-3EFD1D8B617E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F1BDBB64-35DA-4291-A7D4-5E4215C6FB13}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DBBDEAFF-CB3E-4BA5-BD0D-36296595B797}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CD777B3-ECB1-4C06-8EBD-87461D41A85C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65087077-3408-416E-AC13-955B29A0C171}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A14CB9B-DCF6-47B0-B6FD-165F53415A2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1571E038-4335-4C7A-97B8-ECEB6C8D09BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{027E18ED-AC73-462B-9241-B5B8ABBB7C26}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C5583C3-836E-483A-ADC1-EAF49E43084C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE9112B1-4CCC-44FF-8A46-E95369E9C75D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E9B90B6-2CB4-4ED8-9857-72B4965FFA49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25D5848C-1E86-4298-99D1-661B3AEAABF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E125E00E-E47D-4D66-8AE4-441FB1D47EEB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7A35E3C0-5B1A-47E3-A1C5-54A01AEDBF58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{168A16EB-AB23-4033-A35C-09C1937FA31F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B952F72-CBB3-4F19-AAD0-F9EB72587591}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB66C5C6-C6FA-4CA0-A2D3-A60DFB39118A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9124,7 +9124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C084DC8-021A-4DA3-B82E-977237828F43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E245214-DC28-4467-9860-8358A9D3DC42}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10409,18 +10409,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26C83331-F5C1-48FF-AB6B-BE022E4E533B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E067D5F4-6F5E-4701-90D5-5303E8F20914}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBDE34E8-1C4B-470B-AE60-889A522F4D3B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0399FDC5-8D4A-4EC4-8FB5-116A655C9A95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5D3E16D-CC5B-4BA2-B6B5-B3BE3B0EC305}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1153F04-6C5A-410D-B013-EB9310D257AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B319009-4628-4E19-AB87-354BDC5C8C3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0742D47C-907F-46F3-9970-4400EF28905F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9F30073-4DAC-4EAD-87F5-F8E96422550A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C5F732E-1C4E-4D3F-85A9-48BF6B56D1FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D31BC179-4024-4587-8122-AB766F0C4594}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4985AFA-8A06-4CAC-8419-473801BC8F37}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB18DCE7-02C2-4648-B68B-92614DBD1258}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52BC00DB-ED43-4D1C-AA8C-4E7F8127B79D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9EDCE9B5-D64A-41F1-ADA2-4200A18F03AF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5200A246-6B44-4E80-AF12-BB650E5C42DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EB0D027-99B8-4F8E-9ECB-89A9B3C823AB}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A42D9631-4EDD-4C6E-9FB1-ACA70DD668FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24A82E67-2770-465F-AC53-3BF3908D5E56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F7EADE8-4AFA-4E7D-B90F-0BE239234E5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F529BE9-875D-48AB-A155-C780189E7E4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{53EB9757-BFD6-4FC7-AABF-0CD73D6EDD6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{989CBB8F-7E4B-443F-BEE1-3FE3978101F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37D90245-51A9-45D0-82A8-A2A7A369DB3C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10433,7 +10433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12448C4-1416-4683-A35B-1D35B837351E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08085EA6-1410-4B96-B219-81C316B59325}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11718,18 +11718,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31B1C763-D7B9-4918-9DE2-61E13B18942D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26869A7F-AF03-4A5B-8BF4-A1657DD62C9B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5F58123D-C89C-4EAD-B805-70AD25A76CEF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{318C4774-805B-4AE3-9104-680BC6D0FD04}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C218387-4F56-4E41-B3E4-BA761436F414}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D65809A-DE3B-49CC-9477-37640FB70E8C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58275B9A-44F2-4E68-95BA-CC194EA0CD06}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{574B0C37-8269-4A23-99F8-45AB8BD74E44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1ADD5C57-2530-41E9-BCA7-C5EA277BE7B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72FE898B-2469-425A-B784-9D12A256BF95}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{843EB44B-3929-4A2E-9602-2AE2B5CFCBA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B86F6CB6-6107-42D6-AFEC-6F8C76093FF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F282EE6-F944-44F8-9F1A-5811FC1B437B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A48B20E-13D9-48FC-8361-8EFA3AE0A9F6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{46DC3C2B-3A36-4683-880A-F15EA7F5BC06}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E7C257DE-3A4A-4B9D-80DC-70CF16D9639A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{620EB941-D95F-493E-89A3-68277BDF5422}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{26C1207A-7741-4C89-8223-27341E4D0172}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CC868D8-E6D2-417B-BC12-ED4482E56331}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01D564DD-75EE-4C39-9993-8D7313F81B25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B1C7278-CB65-4078-8DA6-28445DDBB2DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6E23E61D-5E79-4B2E-8C6D-637C9E016FDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA19D018-33DE-4323-ADEE-5F5332155026}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34CA8B52-0E96-4F5E-B65D-A279D7A45E41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11742,7 +11742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313E8988-C2B2-4037-9340-B85577A3D02F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A414092-3A57-4AB8-890C-C744EA1135F6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13027,18 +13027,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BC60E08D-7A71-43CB-89DD-852AC651D9F3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A8D5F14-58D7-4E29-A321-BFC5673A6B03}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DC3DF7A8-6361-4FF7-BC57-B1C0420BDAB7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{50269122-5299-4BBE-8B00-20B4B1F13580}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C42EEBA9-9B02-46E0-8A57-598FADCA2BB9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C32E1C06-BACE-4DDB-93A1-3C3D63213FE3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D0B209A-38B4-4FB5-8FDB-835CDABF21E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CD81598-7B31-44E6-89E8-BF70BCF3EAE8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8C4A2722-8F28-46A2-87EF-8241FCCB800E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59A50C00-CF27-4DA9-83B6-8681708A9514}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0668DF5-B89F-4B16-A553-6577D091C7C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F988B0E-D5CD-479E-944C-C46DAE04B134}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36EF6E22-2E5E-4307-9E21-F3629BCB245B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03FCB841-205D-4F72-9F87-04E2EF0D9045}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71898731-670C-49A3-872F-DCD96F8E4A4C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1193DBE6-567D-48C9-A7AA-C2243FBD9A22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B2D9AA2-4A52-418A-9C73-C33F95FF2AE8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E5D890C-483B-4D02-B9AD-69434A3B545B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{060FB3AE-0D14-4052-9B36-B09ECEFC83B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D6FFEC9-4740-449D-AD32-239ACCD65EB8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BCE95E14-187A-4DB4-8D51-9E658DC4054D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EDA04C9-F92D-4289-9054-C954B224A24D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82FBDB8A-E5BE-4641-B4A8-867938B861A5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70315674-F9A6-4223-BC65-52A6BDD4A2DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13051,7 +13051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE7340-9C29-4725-977C-42568C81AA8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A3E470-CF82-455D-B714-A79BD3CF9D9C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14336,18 +14336,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BC9CB61-4F62-4492-82B2-A07F0A74821F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBBE6F9E-FEA7-43E9-8D99-65A157AB5EF3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25813ECB-9478-4F0E-851D-F0B3E31C7A82}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D3DE537-E645-4B8D-AC4C-30EF52ADF8F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{351C8F61-C597-466C-BF22-75391F2E06A0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE8D81F8-CDFA-4D19-81A2-452CD1D93BD7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B8BA1BD-B8D7-4EF7-B4B2-0E6BD5A67397}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE6D4B07-7349-4C1D-AFE0-68346D90A674}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BFB02331-0826-4030-B044-AB4BD84BDF0C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{689F2913-F85D-4045-8EBA-86CDDC19AB0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{983354C6-7FE8-4693-B85A-848999AF84CB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5DDC1395-696D-4AAC-9602-963799FD34CB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{901A7F3A-91B1-4CE8-90C8-749943DAE6E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4146D581-3BCC-4B29-A125-70E673893B3B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{265DDE86-8A8D-429F-939A-05C883B57C22}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D7413ED-72B3-4C02-A303-0E4F877B8ACE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9672B8AD-63EC-4D60-94AE-2D3BA8910A63}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E97C45AF-D4D4-44B2-907E-084254985F2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3CD823B-2279-4E84-B70A-2E5055AFC584}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0DC87DAD-25F8-4524-A3C4-7A954066BF2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BE19351-A0FD-4D6D-8444-C46E31D4A1DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28F3BCC6-BBC6-4259-92F4-9AA9A9381324}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE394E78-9936-4DCA-9C0B-186C1E942DFA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFFAB899-FFDF-4496-B5CB-1C8AB630DB77}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14360,7 +14360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6944110D-7B65-4DD7-A62A-30398293E4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836EBD3F-19B9-4044-A23C-968BA081B165}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15645,18 +15645,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40EFF1B0-96F4-45AE-9C9F-85F5E65E643E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF749C63-5EB5-4069-931E-4B321A0E7A95}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{67B37543-CEA4-4B44-92F8-E38551FC5F86}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D348F10B-F7A4-413D-81A7-03E5DEE593AC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3D874A6-9498-4231-93CF-A60E35D9117C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F5364FDA-CE56-4392-B2F5-70321DF7A36F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{808E93B9-DA2F-4730-B359-65E5552CC0F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFC089C0-9227-4EA8-B0B7-0E0AC310805A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{02EA789B-E932-4F96-B49F-B196C04B6854}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08BCB6C2-E9FC-40A3-A7BC-B57F3C4DDB49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7A34052-3BB9-4113-86D0-880A275131C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F4D34035-5661-4343-845D-0F5456FA880F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36A1BA1A-970D-49FF-9F51-5990812DA146}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F78EB4E-E3DC-4136-8943-00232635C347}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AEECE385-4A28-4613-9C5F-42D4FDBC1B01}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C0235C4-E7A3-4835-B9D7-3D34A7FB5BEB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FAC49C40-28D3-4105-ACCB-92701391B611}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80F604C0-862E-4E76-B76F-9E85D47200CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{860A4AF4-48BE-477B-9F25-A2A361BB6024}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68EE86A0-7F2E-44E3-BA1B-4514795D1B6F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4D9DDE2-D280-4595-BD22-86327ED2D2CB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10013FD4-F343-4EC0-B284-D36652D8DDDC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BCD44A7F-1B18-4182-8B2E-2AC264FA3BA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B81F4A48-F34C-494C-96E1-E7B76EB0CD86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15669,7 +15669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4921A27-B7FB-42C2-8E79-342A6DDA2280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CD8AC8-7FE7-4934-951F-0FA63ADB1673}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16950,18 +16950,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DBC680A-5C8A-4E13-9D41-1CB6808A7A24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC2F4ECC-1134-4CF4-A4C7-BDCBD8365D61}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D6E51FF6-D157-43C2-BCBF-9008E7E0EF10}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{079F32A1-2178-4F48-8262-76AD98D1383D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE918525-3ACC-4364-ABA4-9513ABD4F0CC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{101DE4EE-2C69-4E7A-A1BB-235CFCB08B0C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F24697B4-F24C-4D2A-8FFE-17EF144EB816}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F8AEA0F-87F1-431D-A2B2-F7A336E3BA7E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{784DC78E-2C53-4168-A2A5-3B4D42C206E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2333CA03-6772-43D1-85B1-EF3FD47579F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEBB0AC1-AE6C-4711-93AA-EC672C1AFE80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34F88621-DB70-4C8E-9888-14E0F98559C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACE317E7-B2D2-4A04-BDBC-7A97F3A0FC4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07599B65-90AF-4FB1-858D-C829D8C82CA9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E101B473-84DD-466B-9E8C-885F66363659}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{47FB0A11-FEC1-43DE-BC77-9EB95EB855FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF86A4A7-F2CB-4F8B-B8B8-294D077561DD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3E9A2C02-C495-4941-AA8B-DA8804212756}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F2664BE-536E-4F77-AA8C-8AA240C3286A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8D9F001-23AE-4E6F-9DAA-99130434E34A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{144BCC92-9FBB-4C85-9428-99F27F294CD3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F231368B-2853-4C3F-BFCA-EC7C94661966}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{335D70D2-AC55-4582-A86F-5B6AACB8D154}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34435E20-FE02-474A-BF85-2EF8800EFEDF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
